--- a/Input/Monthly_Template_M1.xlsx
+++ b/Input/Monthly_Template_M1.xlsx
@@ -486,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C634"/>
+  <dimension ref="A1:C636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10005,6 +10005,32 @@
       <c r="C634" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>ATUL</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10017,7 +10043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D634"/>
+  <dimension ref="A1:D636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21440,6 +21466,34 @@
       <c r="D634" t="n">
         <v>0.02263728813559322</v>
       </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr"/>
+      <c r="D635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>ATUL</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr"/>
+      <c r="D636" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21452,7 +21506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C634"/>
+  <dimension ref="A1:C636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30971,6 +31025,32 @@
       <c r="C634" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>ATUL</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30983,7 +31063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C634"/>
+  <dimension ref="A1:C636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40502,6 +40582,32 @@
       <c r="C634" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>ATUL</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input/Monthly_Template_M1.xlsx
+++ b/Input/Monthly_Template_M1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="930" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="930" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Surplus_wheat" sheetId="1" state="visible" r:id="rId1"/>
@@ -486,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C636"/>
+  <dimension ref="A1:C634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -10005,32 +10005,6 @@
       <c r="C634" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>AJIT</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="C635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>ATUL</t>
-        </is>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="C636" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10043,7 +10017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D636"/>
+  <dimension ref="A1:D634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21466,34 +21440,6 @@
       <c r="D634" t="n">
         <v>0.02263728813559322</v>
       </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>AJIT</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="C635" t="inlineStr"/>
-      <c r="D635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>ATUL</t>
-        </is>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="C636" t="inlineStr"/>
-      <c r="D636" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21506,7 +21452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C636"/>
+  <dimension ref="A1:C634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31025,32 +30971,6 @@
       <c r="C634" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>AJIT</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="C635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>ATUL</t>
-        </is>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="C636" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31063,7 +30983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C636"/>
+  <dimension ref="A1:C634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40582,32 +40502,6 @@
       <c r="C634" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>AJIT</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="C635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>ATUL</t>
-        </is>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="C636" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -40623,295 +40517,290 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="18.109375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.6640625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="17.33203125" customWidth="1" style="1" min="3" max="3"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>States</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Supply_wheat</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Supply_rice</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Andhra Pradesh</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>1.78</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Bihar</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Chattisgarh</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Goa</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Gujarat</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Haryana</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" t="n">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Jharkhand</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="n">
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Karnataka</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="n">
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Kerala</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="n">
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Maharashtra</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="n">
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" t="n">
         <v>8.720000000000001</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" t="n">
         <v>0.22</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>NE</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="n">
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Odisha</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="n">
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Punjab</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" t="n">
         <v>10</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" t="n">
         <v>10.3</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Rajasthan</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="n">
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Tamil Nadu</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4" t="n">
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Telangana</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="n">
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>UP</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="n">
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Uttarakhand</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="n">
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>West Bengal</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="n">
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -40924,932 +40813,923 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="18.109375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="12" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="9.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="8.44140625" bestFit="1" customWidth="1" min="4" max="4"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>States</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Alloc_wheat</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Alloc_rice</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Andhra Pradesh</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" t="n">
         <v>0.1</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="n">
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>4.49</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Bihar</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" t="n">
         <v>1.2</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" t="n">
         <v>0.9</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" t="n">
         <v>2.19</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Chattisgarh</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" t="n">
         <v>0.09</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="n">
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>2.46</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Goa</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="n">
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Gujarat</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" t="n">
         <v>0.88</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" t="n">
         <v>1.25</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" t="n">
         <v>2.19</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Haryana</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="n">
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>4.27</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Jammu &amp; Kashmir</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" t="n">
         <v>0.24</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" t="n">
         <v>0.24</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" t="n">
         <v>0.68</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Jharkhand</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" t="n">
         <v>0.3</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" t="n">
         <v>1.23</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" t="n">
         <v>1.59</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Karnataka</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" t="n">
         <v>0.15</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" t="n">
         <v>1.68</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" t="n">
         <v>1.9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Kerala</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" t="n">
         <v>0.05</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" t="n">
         <v>0.6</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Maharashtra</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" t="n">
         <v>1.6</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" t="n">
         <v>0.32</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" t="n">
         <v>1.99</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>MP</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4" t="n">
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>1.57</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>NE</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" t="n">
         <v>0.65</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" t="n">
         <v>1.6</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" t="n">
         <v>2.3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Odisha</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" t="n">
         <v>0.2</v>
       </c>
-      <c r="C15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="n">
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>1.2</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Punjab</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4" t="n">
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>15.85</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Rajasthan</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" t="n">
         <v>1.35</v>
       </c>
-      <c r="C17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4" t="n">
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>2.52</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Tamil Nadu</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" t="n">
         <v>0.9</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Telangana</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" t="n">
         <v>0.11</v>
       </c>
-      <c r="C19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4" t="n">
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
         <v>2.54</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>UP</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" t="n">
         <v>4.21</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" t="n">
         <v>5.24</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" t="n">
         <v>9.550000000000001</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Uttarakhand</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" t="n">
         <v>0.16</v>
       </c>
-      <c r="C21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4" t="n">
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.26</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>West Bengal</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" t="n">
         <v>1.25</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" t="n">
         <v>1.35</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" t="n">
         <v>2.7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet7">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="13.88671875" bestFit="1" customWidth="1" min="3" max="3"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>From</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>To</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Rate per Ton</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.6" customHeight="1">
-      <c r="A2" s="3" t="n">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" t="n">
         <v>100</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" t="n">
         <v>147.4</v>
       </c>
     </row>
-    <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="3" t="n">
+    <row r="3">
+      <c r="A3" t="n">
         <v>101</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" t="n">
         <v>125</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" t="n">
         <v>184.3</v>
       </c>
     </row>
-    <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="3" t="n">
+    <row r="4">
+      <c r="A4" t="n">
         <v>126</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" t="n">
         <v>150</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" t="n">
         <v>224.8</v>
       </c>
     </row>
-    <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="3" t="n">
+    <row r="5">
+      <c r="A5" t="n">
         <v>151</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" t="n">
         <v>175</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" t="n">
         <v>251.9</v>
       </c>
     </row>
-    <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="3" t="n">
+    <row r="6">
+      <c r="A6" t="n">
         <v>176</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" t="n">
         <v>200</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" t="n">
         <v>281.7</v>
       </c>
     </row>
-    <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="3" t="n">
+    <row r="7">
+      <c r="A7" t="n">
         <v>201</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" t="n">
         <v>225</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" t="n">
         <v>309.3</v>
       </c>
     </row>
-    <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="3" t="n">
+    <row r="8">
+      <c r="A8" t="n">
         <v>226</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" t="n">
         <v>250</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" t="n">
         <v>338.9</v>
       </c>
     </row>
-    <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="3" t="n">
+    <row r="9">
+      <c r="A9" t="n">
         <v>251</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" t="n">
         <v>275</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" t="n">
         <v>368.6</v>
       </c>
     </row>
-    <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="3" t="n">
+    <row r="10">
+      <c r="A10" t="n">
         <v>276</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" t="n">
         <v>300</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" t="n">
         <v>397.8</v>
       </c>
     </row>
-    <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="3" t="n">
+    <row r="11">
+      <c r="A11" t="n">
         <v>301</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" t="n">
         <v>325</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" t="n">
         <v>425.5</v>
       </c>
     </row>
-    <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="3" t="n">
+    <row r="12">
+      <c r="A12" t="n">
         <v>326</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" t="n">
         <v>350</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" t="n">
         <v>454.2</v>
       </c>
     </row>
-    <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="3" t="n">
+    <row r="13">
+      <c r="A13" t="n">
         <v>351</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" t="n">
         <v>375</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" t="n">
         <v>483</v>
       </c>
     </row>
-    <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="3" t="n">
+    <row r="14">
+      <c r="A14" t="n">
         <v>376</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" t="n">
         <v>400</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" t="n">
         <v>512.2</v>
       </c>
     </row>
-    <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="3" t="n">
+    <row r="15">
+      <c r="A15" t="n">
         <v>401</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" t="n">
         <v>425</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" t="n">
         <v>541</v>
       </c>
     </row>
-    <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="3" t="n">
+    <row r="16">
+      <c r="A16" t="n">
         <v>426</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" t="n">
         <v>450</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" t="n">
         <v>571</v>
       </c>
     </row>
-    <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="3" t="n">
+    <row r="17">
+      <c r="A17" t="n">
         <v>451</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" t="n">
         <v>475</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" t="n">
         <v>599.7</v>
       </c>
     </row>
-    <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" s="3" t="n">
+    <row r="18">
+      <c r="A18" t="n">
         <v>476</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" t="n">
         <v>500</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" t="n">
         <v>629.7</v>
       </c>
     </row>
-    <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" s="3" t="n">
+    <row r="19">
+      <c r="A19" t="n">
         <v>501</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" t="n">
         <v>550</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" t="n">
         <v>689.1</v>
       </c>
     </row>
-    <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" s="3" t="n">
+    <row r="20">
+      <c r="A20" t="n">
         <v>551</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" t="n">
         <v>600</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" t="n">
         <v>748</v>
       </c>
     </row>
-    <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="3" t="n">
+    <row r="21">
+      <c r="A21" t="n">
         <v>601</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" t="n">
         <v>650</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" t="n">
         <v>806.4</v>
       </c>
     </row>
-    <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="3" t="n">
+    <row r="22">
+      <c r="A22" t="n">
         <v>651</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" t="n">
         <v>700</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" t="n">
         <v>864.5</v>
       </c>
     </row>
-    <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="3" t="n">
+    <row r="23">
+      <c r="A23" t="n">
         <v>701</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" t="n">
         <v>750</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" t="n">
         <v>923.1</v>
       </c>
     </row>
-    <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="3" t="n">
+    <row r="24">
+      <c r="A24" t="n">
         <v>751</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" t="n">
         <v>800</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" t="n">
         <v>980.6</v>
       </c>
     </row>
-    <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="3" t="n">
+    <row r="25">
+      <c r="A25" t="n">
         <v>801</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" t="n">
         <v>850</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" t="n">
         <v>1038.2</v>
       </c>
     </row>
-    <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="3" t="n">
+    <row r="26">
+      <c r="A26" t="n">
         <v>851</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" t="n">
         <v>900</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" t="n">
         <v>1095.5</v>
       </c>
     </row>
-    <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="3" t="n">
+    <row r="27">
+      <c r="A27" t="n">
         <v>901</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" t="n">
         <v>950</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" t="n">
         <v>1152.7</v>
       </c>
     </row>
-    <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="3" t="n">
+    <row r="28">
+      <c r="A28" t="n">
         <v>951</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" t="n">
         <v>1000</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" t="n">
         <v>1209.9</v>
       </c>
     </row>
-    <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="3" t="n">
+    <row r="29">
+      <c r="A29" t="n">
         <v>1001</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" t="n">
         <v>1100</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" t="n">
         <v>1325.5</v>
       </c>
     </row>
-    <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="3" t="n">
+    <row r="30">
+      <c r="A30" t="n">
         <v>1101</v>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" t="n">
         <v>1200</v>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="C30" t="n">
         <v>1441.3</v>
       </c>
     </row>
-    <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="3" t="n">
+    <row r="31">
+      <c r="A31" t="n">
         <v>1201</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" t="n">
         <v>1300</v>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="C31" t="n">
         <v>1556.6</v>
       </c>
     </row>
-    <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="3" t="n">
+    <row r="32">
+      <c r="A32" t="n">
         <v>1301</v>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" t="n">
         <v>1400</v>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="C32" t="n">
         <v>1671.3</v>
       </c>
     </row>
-    <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="3" t="n">
+    <row r="33">
+      <c r="A33" t="n">
         <v>1401</v>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" t="n">
         <v>1500</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" t="n">
         <v>1785.9</v>
       </c>
     </row>
-    <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="3" t="n">
+    <row r="34">
+      <c r="A34" t="n">
         <v>1501</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" t="n">
         <v>1625</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" t="n">
         <v>1897.2</v>
       </c>
     </row>
-    <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="3" t="n">
+    <row r="35">
+      <c r="A35" t="n">
         <v>1626</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" t="n">
         <v>1750</v>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="C35" t="n">
         <v>2043.2</v>
       </c>
     </row>
-    <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="3" t="n">
+    <row r="36">
+      <c r="A36" t="n">
         <v>1751</v>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" t="n">
         <v>1875</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" t="n">
         <v>2101.1</v>
       </c>
     </row>
-    <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" s="3" t="n">
+    <row r="37">
+      <c r="A37" t="n">
         <v>1876</v>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" t="n">
         <v>2000</v>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="C37" t="n">
         <v>2241.1</v>
       </c>
     </row>
-    <row r="38" ht="15.6" customHeight="1">
-      <c r="A38" s="3" t="n">
+    <row r="38">
+      <c r="A38" t="n">
         <v>2001</v>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" t="n">
         <v>2125</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" t="n">
         <v>2263.7</v>
       </c>
     </row>
-    <row r="39" ht="15.6" customHeight="1">
-      <c r="A39" s="3" t="n">
+    <row r="39">
+      <c r="A39" t="n">
         <v>2126</v>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" t="n">
         <v>2250</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" t="n">
         <v>2396.8</v>
       </c>
     </row>
-    <row r="40" ht="15.6" customHeight="1">
-      <c r="A40" s="3" t="n">
+    <row r="40">
+      <c r="A40" t="n">
         <v>2251</v>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" t="n">
         <v>2375</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" t="n">
         <v>2418.5</v>
       </c>
     </row>
-    <row r="41" ht="15.6" customHeight="1">
-      <c r="A41" s="3" t="n">
+    <row r="41">
+      <c r="A41" t="n">
         <v>2376</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" t="n">
         <v>2500</v>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="C41" t="n">
         <v>2545.8</v>
       </c>
     </row>
-    <row r="42" ht="15.6" customHeight="1">
-      <c r="A42" s="3" t="n">
+    <row r="42">
+      <c r="A42" t="n">
         <v>2501</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" t="n">
         <v>2625</v>
       </c>
-      <c r="C42" s="3" t="n">
+      <c r="C42" t="n">
         <v>2585.8</v>
       </c>
     </row>
-    <row r="43" ht="15.6" customHeight="1">
-      <c r="A43" s="3" t="n">
+    <row r="43">
+      <c r="A43" t="n">
         <v>2626</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" t="n">
         <v>2750</v>
       </c>
-      <c r="C43" s="3" t="n">
+      <c r="C43" t="n">
         <v>2708.9</v>
       </c>
     </row>
-    <row r="44" ht="15.6" customHeight="1">
-      <c r="A44" s="3" t="n">
+    <row r="44">
+      <c r="A44" t="n">
         <v>2751</v>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" t="n">
         <v>2875</v>
       </c>
-      <c r="C44" s="3" t="n">
+      <c r="C44" t="n">
         <v>2747.3</v>
       </c>
     </row>
-    <row r="45" ht="15.6" customHeight="1">
-      <c r="A45" s="3" t="n">
+    <row r="45">
+      <c r="A45" t="n">
         <v>2876</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" t="n">
         <v>3000</v>
       </c>
-      <c r="C45" s="3" t="n">
+      <c r="C45" t="n">
         <v>2866.8</v>
       </c>
     </row>
-    <row r="46" ht="15.6" customHeight="1">
-      <c r="A46" s="3" t="n">
+    <row r="46">
+      <c r="A46" t="n">
         <v>3001</v>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" t="n">
         <v>3125</v>
       </c>
-      <c r="C46" s="3" t="n">
+      <c r="C46" t="n">
         <v>2903.7</v>
       </c>
     </row>
-    <row r="47" ht="15.6" customHeight="1">
-      <c r="A47" s="3" t="n">
+    <row r="47">
+      <c r="A47" t="n">
         <v>3126</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" t="n">
         <v>3250</v>
       </c>
-      <c r="C47" s="3" t="n">
+      <c r="C47" t="n">
         <v>3019.9</v>
       </c>
     </row>
-    <row r="48" ht="15.6" customHeight="1">
-      <c r="A48" s="3" t="n">
+    <row r="48">
+      <c r="A48" t="n">
         <v>3251</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" t="n">
         <v>3375</v>
       </c>
-      <c r="C48" s="3" t="n">
+      <c r="C48" t="n">
         <v>3056</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Input/Monthly_Template_M1.xlsx
+++ b/Input/Monthly_Template_M1.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Deficit_rice" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="States_supply" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="States_allocation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Rail_cost_chart" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -22,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,12 +35,6 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="8"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -53,7 +46,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -77,17 +70,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -97,18 +79,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -463,17 +439,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Railhead</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Supply</t>
         </is>
@@ -491,7 +467,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +617,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -701,7 +677,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -6566,7 +6542,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -7046,7 +7022,7 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -7256,7 +7232,7 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -7586,7 +7562,7 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -10969,22 +10945,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Railhead</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Demand</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
@@ -20956,7 +20932,7 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D555" t="n">
         <v>0</v>
@@ -21280,7 +21256,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D573" t="n">
         <v>0</v>
@@ -21370,7 +21346,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D578" t="n">
         <v>0</v>
@@ -21856,7 +21832,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D605" t="n">
         <v>0</v>
@@ -23574,17 +23550,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Railhead</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Supply</t>
         </is>
@@ -25912,7 +25888,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -29902,7 +29878,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -30352,7 +30328,7 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -30532,7 +30508,7 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
@@ -30682,7 +30658,7 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -34080,17 +34056,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Railhead</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Demand</t>
         </is>
@@ -42208,7 +42184,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -42508,7 +42484,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -42973,7 +42949,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -43168,7 +43144,7 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
@@ -43213,7 +43189,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
@@ -44586,17 +44562,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Supply_wheat</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Supply_rice</t>
         </is>
@@ -44882,22 +44858,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>States</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Alloc_wheat</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Alloc_rice</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
@@ -45221,559 +45197,6 @@
       </c>
       <c r="D21" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>From</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>To</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Rate per Ton</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" t="n">
-        <v>147.4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>101</v>
-      </c>
-      <c r="B3" t="n">
-        <v>125</v>
-      </c>
-      <c r="C3" t="n">
-        <v>184.3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>126</v>
-      </c>
-      <c r="B4" t="n">
-        <v>150</v>
-      </c>
-      <c r="C4" t="n">
-        <v>224.8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>151</v>
-      </c>
-      <c r="B5" t="n">
-        <v>175</v>
-      </c>
-      <c r="C5" t="n">
-        <v>251.9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>176</v>
-      </c>
-      <c r="B6" t="n">
-        <v>200</v>
-      </c>
-      <c r="C6" t="n">
-        <v>281.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>201</v>
-      </c>
-      <c r="B7" t="n">
-        <v>225</v>
-      </c>
-      <c r="C7" t="n">
-        <v>309.3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>226</v>
-      </c>
-      <c r="B8" t="n">
-        <v>250</v>
-      </c>
-      <c r="C8" t="n">
-        <v>338.9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>251</v>
-      </c>
-      <c r="B9" t="n">
-        <v>275</v>
-      </c>
-      <c r="C9" t="n">
-        <v>368.6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>276</v>
-      </c>
-      <c r="B10" t="n">
-        <v>300</v>
-      </c>
-      <c r="C10" t="n">
-        <v>397.8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>301</v>
-      </c>
-      <c r="B11" t="n">
-        <v>325</v>
-      </c>
-      <c r="C11" t="n">
-        <v>425.5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>326</v>
-      </c>
-      <c r="B12" t="n">
-        <v>350</v>
-      </c>
-      <c r="C12" t="n">
-        <v>454.2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>351</v>
-      </c>
-      <c r="B13" t="n">
-        <v>375</v>
-      </c>
-      <c r="C13" t="n">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>376</v>
-      </c>
-      <c r="B14" t="n">
-        <v>400</v>
-      </c>
-      <c r="C14" t="n">
-        <v>512.2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>401</v>
-      </c>
-      <c r="B15" t="n">
-        <v>425</v>
-      </c>
-      <c r="C15" t="n">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>426</v>
-      </c>
-      <c r="B16" t="n">
-        <v>450</v>
-      </c>
-      <c r="C16" t="n">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>451</v>
-      </c>
-      <c r="B17" t="n">
-        <v>475</v>
-      </c>
-      <c r="C17" t="n">
-        <v>599.7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>476</v>
-      </c>
-      <c r="B18" t="n">
-        <v>500</v>
-      </c>
-      <c r="C18" t="n">
-        <v>629.7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>501</v>
-      </c>
-      <c r="B19" t="n">
-        <v>550</v>
-      </c>
-      <c r="C19" t="n">
-        <v>689.1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>551</v>
-      </c>
-      <c r="B20" t="n">
-        <v>600</v>
-      </c>
-      <c r="C20" t="n">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>601</v>
-      </c>
-      <c r="B21" t="n">
-        <v>650</v>
-      </c>
-      <c r="C21" t="n">
-        <v>806.4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>651</v>
-      </c>
-      <c r="B22" t="n">
-        <v>700</v>
-      </c>
-      <c r="C22" t="n">
-        <v>864.5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>701</v>
-      </c>
-      <c r="B23" t="n">
-        <v>750</v>
-      </c>
-      <c r="C23" t="n">
-        <v>923.1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>751</v>
-      </c>
-      <c r="B24" t="n">
-        <v>800</v>
-      </c>
-      <c r="C24" t="n">
-        <v>980.6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>801</v>
-      </c>
-      <c r="B25" t="n">
-        <v>850</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1038.2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>851</v>
-      </c>
-      <c r="B26" t="n">
-        <v>900</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1095.5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>901</v>
-      </c>
-      <c r="B27" t="n">
-        <v>950</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1152.7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>951</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1209.9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1100</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1325.5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1101</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1200</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1441.3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1201</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1300</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1556.6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1301</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1400</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1671.3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1401</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1500</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1785.9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>1501</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1625</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1897.2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1626</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1750</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2043.2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1751</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1875</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2101.1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>1876</v>
-      </c>
-      <c r="B37" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2241.1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B38" t="n">
-        <v>2125</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2263.7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>2126</v>
-      </c>
-      <c r="B39" t="n">
-        <v>2250</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2396.8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>2251</v>
-      </c>
-      <c r="B40" t="n">
-        <v>2375</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2418.5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2376</v>
-      </c>
-      <c r="B41" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2545.8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2501</v>
-      </c>
-      <c r="B42" t="n">
-        <v>2625</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2585.8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2626</v>
-      </c>
-      <c r="B43" t="n">
-        <v>2750</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2708.9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>2751</v>
-      </c>
-      <c r="B44" t="n">
-        <v>2875</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2747.3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>2876</v>
-      </c>
-      <c r="B45" t="n">
-        <v>3000</v>
-      </c>
-      <c r="C45" t="n">
-        <v>2866.8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>3001</v>
-      </c>
-      <c r="B46" t="n">
-        <v>3125</v>
-      </c>
-      <c r="C46" t="n">
-        <v>2903.7</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>3126</v>
-      </c>
-      <c r="B47" t="n">
-        <v>3250</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3019.9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>3251</v>
-      </c>
-      <c r="B48" t="n">
-        <v>3375</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3056</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Monthly_Template_M1.xlsx
+++ b/Input/Monthly_Template_M1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="930" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="878" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Surplus_wheat" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="States_allocation" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -31,22 +31,31 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -56,17 +65,28 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -79,18 +99,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -430,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C699"/>
+  <dimension ref="A1:C788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +516,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Railhead</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Supply</t>
         </is>
@@ -467,7 +544,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -617,7 +694,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -677,7 +754,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2183,7 +2260,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">RFCI </t>
+          <t>RFCI</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2243,7 +2320,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">DURG </t>
+          <t>DURG</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4688,7 +4765,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t xml:space="preserve">BALE </t>
+          <t>BALE</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -7928,7 +8005,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHSM </t>
+          <t>CHSM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -9953,12 +10030,12 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>GVSG</t>
+          <t>TLD</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Chattisgarh</t>
         </is>
       </c>
       <c r="C635" t="n">
@@ -9968,12 +10045,12 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>TLD</t>
+          <t>RNO</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C636" t="n">
@@ -9983,12 +10060,12 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>DURG</t>
+          <t>RMBK</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C637" t="n">
@@ -9998,12 +10075,12 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>RFCI</t>
+          <t>PNMB</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -10013,12 +10090,12 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>RNO</t>
+          <t>NBQ</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C639" t="n">
@@ -10028,12 +10105,12 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>RMBK</t>
+          <t>SGNR</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C640" t="n">
@@ -10043,12 +10120,12 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>PNMB</t>
+          <t>BGKT</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C641" t="n">
@@ -10058,12 +10135,12 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t xml:space="preserve">TRVL </t>
+          <t>BME</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C642" t="n">
@@ -10073,12 +10150,12 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t xml:space="preserve">GHSG </t>
+          <t>POK</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C643" t="n">
@@ -10088,12 +10165,12 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>BALE</t>
+          <t>JOR</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C644" t="n">
@@ -10103,12 +10180,12 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>NBQ</t>
+          <t>GVGN</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -10118,12 +10195,12 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>SGNR</t>
+          <t>CHD</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="C646" t="n">
@@ -10133,12 +10210,12 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t xml:space="preserve">SDLP </t>
+          <t>DHPR</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C647" t="n">
@@ -10148,12 +10225,12 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>BGKT</t>
+          <t>FZR</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C648" t="n">
@@ -10163,12 +10240,12 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>BME</t>
+          <t>PTK</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C649" t="n">
@@ -10178,12 +10255,12 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>POK</t>
+          <t>HSP</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C650" t="n">
@@ -10193,12 +10270,12 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>MUK</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C651" t="n">
@@ -10208,7 +10285,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>GVGN</t>
+          <t>DZA</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -10223,12 +10300,12 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>CHD</t>
+          <t>ELRA</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C653" t="n">
@@ -10238,12 +10315,12 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>DHPR</t>
+          <t>TPJ</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C654" t="n">
@@ -10253,12 +10330,12 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>FZR</t>
+          <t>KONC</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C655" t="n">
@@ -10268,12 +10345,12 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>PTK</t>
+          <t>PEM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C656" t="n">
@@ -10283,12 +10360,12 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>HSP</t>
+          <t>CBU</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Telangana</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C657" t="n">
@@ -10298,12 +10375,12 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>MUK</t>
+          <t>CDM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C658" t="n">
@@ -10313,12 +10390,12 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>MROS</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C659" t="n">
@@ -10328,12 +10405,12 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>ELRA</t>
+          <t>CHZ</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C660" t="n">
@@ -10343,12 +10420,12 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>TPJ</t>
+          <t>RK</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttarakhand</t>
         </is>
       </c>
       <c r="C661" t="n">
@@ -10358,12 +10435,12 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>KONC</t>
+          <t>HRW</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttarakhand</t>
         </is>
       </c>
       <c r="C662" t="n">
@@ -10373,12 +10450,12 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>PEM</t>
+          <t>RKSH</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttarakhand</t>
         </is>
       </c>
       <c r="C663" t="n">
@@ -10388,12 +10465,12 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>CBU</t>
+          <t>PHY</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C664" t="n">
@@ -10403,12 +10480,12 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>CDM</t>
+          <t>BHI</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C665" t="n">
@@ -10418,12 +10495,12 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>CHSM</t>
+          <t>BSUR</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C666" t="n">
@@ -10433,7 +10510,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>MROS</t>
+          <t>AALJ</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -10448,12 +10525,12 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>CHZ</t>
+          <t>PFCR</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -10463,12 +10540,12 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>FCP</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Uttarakhand</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C669" t="n">
@@ -10478,12 +10555,12 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>HRW</t>
+          <t>AY</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Uttarakhand</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C670" t="n">
@@ -10493,12 +10570,12 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>RKSH</t>
+          <t>HPU</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Uttarakhand</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C671" t="n">
@@ -10508,12 +10585,12 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>PHY</t>
+          <t>GADJ</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C672" t="n">
@@ -10523,12 +10600,12 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>BHI</t>
+          <t>JAT</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Jammu &amp; Kashmir</t>
         </is>
       </c>
       <c r="C673" t="n">
@@ -10538,12 +10615,12 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>BSUR</t>
+          <t>AWR</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C674" t="n">
@@ -10553,12 +10630,12 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>AALJ</t>
+          <t>DGR</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C675" t="n">
@@ -10568,12 +10645,12 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>PFCR</t>
+          <t>GLGT</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C676" t="n">
@@ -10583,12 +10660,12 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>FCP</t>
+          <t>PLP</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C677" t="n">
@@ -10598,7 +10675,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>AY</t>
+          <t>BMHR</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -10613,12 +10690,12 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>HPU</t>
+          <t>FCSJ</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Jammu &amp; Kashmir</t>
         </is>
       </c>
       <c r="C679" t="n">
@@ -10628,12 +10705,12 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>GADJ</t>
+          <t>SBIB</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C680" t="n">
@@ -10643,12 +10720,12 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>JAT</t>
+          <t>CNBI</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Jammu &amp; Kashmir</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C681" t="n">
@@ -10658,12 +10735,12 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>AWR</t>
+          <t>GDA</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C682" t="n">
@@ -10673,7 +10750,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>DGR</t>
+          <t>NJP</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -10688,12 +10765,12 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>GLGT</t>
+          <t>HRF</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C684" t="n">
@@ -10703,12 +10780,12 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>PLP</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C685" t="n">
@@ -10718,12 +10795,12 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>BMHR</t>
+          <t>MRJ</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C686" t="n">
@@ -10733,12 +10810,12 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>FCSJ</t>
+          <t>PGTN</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Jammu &amp; Kashmir</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="C687" t="n">
@@ -10748,12 +10825,12 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>SBIB</t>
+          <t>KJM</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C688" t="n">
@@ -10763,12 +10840,12 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>CNBI</t>
+          <t>DMFS</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C689" t="n">
@@ -10778,12 +10855,12 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>GDA</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C690" t="n">
@@ -10793,12 +10870,12 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>NJP</t>
+          <t>CGS</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>West Bengal</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C691" t="n">
@@ -10808,12 +10885,12 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>HRF</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C692" t="n">
@@ -10823,12 +10900,12 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>COA</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C693" t="n">
@@ -10838,12 +10915,12 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>MRJ</t>
+          <t>JCL</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C694" t="n">
@@ -10853,12 +10930,12 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>PGTN</t>
+          <t>BGP</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C695" t="n">
@@ -10868,12 +10945,12 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>KJM</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C696" t="n">
@@ -10883,12 +10960,12 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>DMFS</t>
+          <t>FUT</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C697" t="n">
@@ -10898,12 +10975,12 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>JMP</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C698" t="n">
@@ -10913,15 +10990,1350 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>CGS</t>
+          <t>RNX</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>BGBR</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chattisgarh </t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>BSP</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chattisgarh </t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>MSMD</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chattisgarh </t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>FCDB</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>FCG</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>KKF</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="C706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>BBMN</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>SMBX</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>UHP</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>KQR</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>RMT</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>SBG</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>TATA</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>BGM</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>HVR</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>CHTS</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>BHS</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>GGGS</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>KEQ</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>KMZ</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>NSP</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>BAP</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>HBN</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
           <t>NE</t>
         </is>
       </c>
-      <c r="C699" t="n">
+      <c r="C726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>JTTN</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>BLS</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odisha </t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>JJKR</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odisha </t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>KUR</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odisha </t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odisha </t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>AGS</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>BTE</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>DHO</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>HAN</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>SGRA</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>SOG</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>ALU</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>CBF</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>IGCS</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>KPD</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>KUM</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>MDAD</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>MTP</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>TBM</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>AGC</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>AMG</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>BUI</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>GCT</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>GKC</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>HGJ</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>PKY</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>BWN</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>HB</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>KKQ</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>MDN</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>BGDS</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>VGLJ</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>LLBR</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>KOKG</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>NFK</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>ADR</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>BNW</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>FCPP</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>FCSD</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>FCSN</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C767" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>FDB</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>HDL</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>KORI</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>PCWD</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>PHWR</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C773" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>PNP</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>PWL</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C775" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>SNP</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C776" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>STD</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>AHH</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C778" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>CIA</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>CWHB</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>DNN</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>LDH</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C782" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>LDK</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C783" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>SNL</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>SEQ</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="C786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>SVER</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>SGSR</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C788" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10936,7 +12348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D699"/>
+  <dimension ref="A1:D788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10945,22 +12357,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Railhead</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Demand</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
@@ -11527,7 +12939,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">GVSG </t>
+          <t>GVSG</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -13039,7 +14451,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">RFCI </t>
+          <t>RFCI</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -13111,7 +14523,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">DURG </t>
+          <t>DURG</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -16045,7 +17457,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t xml:space="preserve">BALE </t>
+          <t>BALE</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -19933,7 +21345,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHSM </t>
+          <t>CHSM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -22363,12 +23775,12 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>GVSG</t>
+          <t>TLD</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Chattisgarh</t>
         </is>
       </c>
       <c r="C635" t="n">
@@ -22381,12 +23793,12 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>TLD</t>
+          <t>RNO</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C636" t="n">
@@ -22399,12 +23811,12 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>DURG</t>
+          <t>RMBK</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C637" t="n">
@@ -22417,12 +23829,12 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>RFCI</t>
+          <t>PNMB</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -22435,12 +23847,12 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>RNO</t>
+          <t>NBQ</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C639" t="n">
@@ -22453,12 +23865,12 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>RMBK</t>
+          <t>SGNR</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C640" t="n">
@@ -22471,12 +23883,12 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>PNMB</t>
+          <t>BGKT</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C641" t="n">
@@ -22489,12 +23901,12 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t xml:space="preserve">TRVL </t>
+          <t>BME</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C642" t="n">
@@ -22507,12 +23919,12 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t xml:space="preserve">GHSG </t>
+          <t>POK</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C643" t="n">
@@ -22525,12 +23937,12 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>BALE</t>
+          <t>JOR</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C644" t="n">
@@ -22543,12 +23955,12 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>NBQ</t>
+          <t>GVGN</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -22561,12 +23973,12 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>SGNR</t>
+          <t>CHD</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="C646" t="n">
@@ -22579,12 +23991,12 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t xml:space="preserve">SDLP </t>
+          <t>DHPR</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C647" t="n">
@@ -22597,12 +24009,12 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>BGKT</t>
+          <t>FZR</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C648" t="n">
@@ -22615,12 +24027,12 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>BME</t>
+          <t>PTK</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C649" t="n">
@@ -22633,12 +24045,12 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>POK</t>
+          <t>HSP</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C650" t="n">
@@ -22651,12 +24063,12 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>MUK</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C651" t="n">
@@ -22669,7 +24081,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>GVGN</t>
+          <t>DZA</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -22687,12 +24099,12 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>CHD</t>
+          <t>ELRA</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C653" t="n">
@@ -22705,12 +24117,12 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>DHPR</t>
+          <t>TPJ</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C654" t="n">
@@ -22723,12 +24135,12 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>FZR</t>
+          <t>KONC</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C655" t="n">
@@ -22741,12 +24153,12 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>PTK</t>
+          <t>PEM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C656" t="n">
@@ -22759,12 +24171,12 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>HSP</t>
+          <t>CBU</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Telangana</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C657" t="n">
@@ -22777,12 +24189,12 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>MUK</t>
+          <t>CDM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C658" t="n">
@@ -22795,12 +24207,12 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>MROS</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C659" t="n">
@@ -22813,12 +24225,12 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>ELRA</t>
+          <t>CHZ</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C660" t="n">
@@ -22831,12 +24243,12 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>TPJ</t>
+          <t>RK</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttarakhand</t>
         </is>
       </c>
       <c r="C661" t="n">
@@ -22849,12 +24261,12 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>KONC</t>
+          <t>HRW</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttarakhand</t>
         </is>
       </c>
       <c r="C662" t="n">
@@ -22867,12 +24279,12 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>PEM</t>
+          <t>RKSH</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttarakhand</t>
         </is>
       </c>
       <c r="C663" t="n">
@@ -22885,12 +24297,12 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>CBU</t>
+          <t>PHY</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C664" t="n">
@@ -22903,12 +24315,12 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>CDM</t>
+          <t>BHI</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C665" t="n">
@@ -22921,12 +24333,12 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>CHSM</t>
+          <t>BSUR</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C666" t="n">
@@ -22939,7 +24351,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>MROS</t>
+          <t>AALJ</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -22957,12 +24369,12 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>CHZ</t>
+          <t>PFCR</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -22975,12 +24387,12 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>FCP</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Uttarakhand</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C669" t="n">
@@ -22993,12 +24405,12 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>HRW</t>
+          <t>AY</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Uttarakhand</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C670" t="n">
@@ -23011,12 +24423,12 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>RKSH</t>
+          <t>HPU</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Uttarakhand</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C671" t="n">
@@ -23029,12 +24441,12 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>PHY</t>
+          <t>GADJ</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C672" t="n">
@@ -23047,12 +24459,12 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>BHI</t>
+          <t>JAT</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Jammu &amp; Kashmir</t>
         </is>
       </c>
       <c r="C673" t="n">
@@ -23065,12 +24477,12 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>BSUR</t>
+          <t>AWR</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C674" t="n">
@@ -23083,12 +24495,12 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>AALJ</t>
+          <t>DGR</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C675" t="n">
@@ -23101,12 +24513,12 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>PFCR</t>
+          <t>GLGT</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C676" t="n">
@@ -23119,12 +24531,12 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>FCP</t>
+          <t>PLP</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C677" t="n">
@@ -23137,7 +24549,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>AY</t>
+          <t>BMHR</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -23155,12 +24567,12 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>HPU</t>
+          <t>FCSJ</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Jammu &amp; Kashmir</t>
         </is>
       </c>
       <c r="C679" t="n">
@@ -23173,12 +24585,12 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>GADJ</t>
+          <t>SBIB</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C680" t="n">
@@ -23191,12 +24603,12 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>JAT</t>
+          <t>CNBI</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Jammu &amp; Kashmir</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C681" t="n">
@@ -23209,12 +24621,12 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>AWR</t>
+          <t>GDA</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C682" t="n">
@@ -23227,7 +24639,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>DGR</t>
+          <t>NJP</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -23245,12 +24657,12 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>GLGT</t>
+          <t>HRF</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C684" t="n">
@@ -23263,12 +24675,12 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>PLP</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C685" t="n">
@@ -23281,12 +24693,12 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>BMHR</t>
+          <t>MRJ</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C686" t="n">
@@ -23299,12 +24711,12 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>FCSJ</t>
+          <t>PGTN</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Jammu &amp; Kashmir</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="C687" t="n">
@@ -23317,12 +24729,12 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>SBIB</t>
+          <t>KJM</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C688" t="n">
@@ -23335,12 +24747,12 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>CNBI</t>
+          <t>DMFS</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C689" t="n">
@@ -23353,12 +24765,12 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>GDA</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C690" t="n">
@@ -23371,12 +24783,12 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>NJP</t>
+          <t>CGS</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>West Bengal</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C691" t="n">
@@ -23389,12 +24801,12 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>HRF</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C692" t="n">
@@ -23407,12 +24819,12 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>COA</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C693" t="n">
@@ -23425,12 +24837,12 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>MRJ</t>
+          <t>JCL</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C694" t="n">
@@ -23443,12 +24855,12 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>PGTN</t>
+          <t>BGP</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C695" t="n">
@@ -23461,12 +24873,12 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>KJM</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C696" t="n">
@@ -23479,12 +24891,12 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>DMFS</t>
+          <t>FUT</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C697" t="n">
@@ -23497,12 +24909,12 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>JMP</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C698" t="n">
@@ -23515,18 +24927,1620 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>CGS</t>
+          <t>RNX</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>0</v>
+      </c>
+      <c r="D699" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>BGBR</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chattisgarh </t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>0</v>
+      </c>
+      <c r="D700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>BSP</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chattisgarh </t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>0</v>
+      </c>
+      <c r="D701" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>MSMD</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chattisgarh </t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>0</v>
+      </c>
+      <c r="D702" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>FCDB</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>0</v>
+      </c>
+      <c r="D703" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>FCG</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>0</v>
+      </c>
+      <c r="D704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>KKF</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>0</v>
+      </c>
+      <c r="D705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="C706" t="n">
+        <v>0</v>
+      </c>
+      <c r="D706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>BBMN</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>0</v>
+      </c>
+      <c r="D707" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>SMBX</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>0</v>
+      </c>
+      <c r="D708" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>UHP</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>0</v>
+      </c>
+      <c r="D709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>KQR</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>0</v>
+      </c>
+      <c r="D710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>RMT</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>0</v>
+      </c>
+      <c r="D711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>SBG</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>0</v>
+      </c>
+      <c r="D712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>TATA</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>0</v>
+      </c>
+      <c r="D713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>BGM</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>0</v>
+      </c>
+      <c r="D714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>0</v>
+      </c>
+      <c r="D715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>HVR</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>0</v>
+      </c>
+      <c r="D716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>CHTS</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>0</v>
+      </c>
+      <c r="D717" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>BHS</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>0</v>
+      </c>
+      <c r="D718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>GGGS</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>0</v>
+      </c>
+      <c r="D719" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>KEQ</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>0</v>
+      </c>
+      <c r="D720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>KMZ</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>0</v>
+      </c>
+      <c r="D721" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>NSP</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>0</v>
+      </c>
+      <c r="D722" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>0</v>
+      </c>
+      <c r="D723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>BAP</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>0</v>
+      </c>
+      <c r="D724" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>0</v>
+      </c>
+      <c r="D725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>HBN</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
           <t>NE</t>
         </is>
       </c>
-      <c r="C699" t="n">
-        <v>0</v>
-      </c>
-      <c r="D699" t="n">
+      <c r="C726" t="n">
+        <v>0</v>
+      </c>
+      <c r="D726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>JTTN</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>0</v>
+      </c>
+      <c r="D727" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>BLS</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odisha </t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>0</v>
+      </c>
+      <c r="D728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>JJKR</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odisha </t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>0</v>
+      </c>
+      <c r="D729" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>KUR</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odisha </t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>0</v>
+      </c>
+      <c r="D730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odisha </t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>0</v>
+      </c>
+      <c r="D731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>AGS</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>0</v>
+      </c>
+      <c r="D732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>BTE</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>0</v>
+      </c>
+      <c r="D733" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>DHO</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>0</v>
+      </c>
+      <c r="D734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>HAN</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>0</v>
+      </c>
+      <c r="D735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>SGRA</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>0</v>
+      </c>
+      <c r="D736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>SOG</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>0</v>
+      </c>
+      <c r="D737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>ALU</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>0</v>
+      </c>
+      <c r="D738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>CBF</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>0</v>
+      </c>
+      <c r="D739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>IGCS</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>0</v>
+      </c>
+      <c r="D740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>KPD</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>0</v>
+      </c>
+      <c r="D741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>KUM</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>0</v>
+      </c>
+      <c r="D742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>MDAD</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>0</v>
+      </c>
+      <c r="D743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>MTP</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>0</v>
+      </c>
+      <c r="D744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>TBM</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>0</v>
+      </c>
+      <c r="D745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>AGC</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>0</v>
+      </c>
+      <c r="D746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>AMG</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>0</v>
+      </c>
+      <c r="D747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>BUI</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>0</v>
+      </c>
+      <c r="D748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>GCT</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>0</v>
+      </c>
+      <c r="D749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>GKC</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>0</v>
+      </c>
+      <c r="D750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>HGJ</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>0</v>
+      </c>
+      <c r="D751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>PKY</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C752" t="n">
+        <v>0</v>
+      </c>
+      <c r="D752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>0</v>
+      </c>
+      <c r="D753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>BWN</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>0</v>
+      </c>
+      <c r="D754" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>HB</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>0</v>
+      </c>
+      <c r="D755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>KKQ</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>0</v>
+      </c>
+      <c r="D756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>MDN</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>0</v>
+      </c>
+      <c r="D757" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>BGDS</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>0</v>
+      </c>
+      <c r="D758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>VGLJ</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>LLBR</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>0</v>
+      </c>
+      <c r="D760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>KOKG</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>0</v>
+      </c>
+      <c r="D761" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>NFK</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>0</v>
+      </c>
+      <c r="D762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>ADR</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>0</v>
+      </c>
+      <c r="D763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>BNW</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D764" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>FCPP</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>0</v>
+      </c>
+      <c r="D765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>FCSD</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C766" t="n">
+        <v>0</v>
+      </c>
+      <c r="D766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>FCSN</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C767" t="n">
+        <v>0</v>
+      </c>
+      <c r="D767" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>FDB</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>0</v>
+      </c>
+      <c r="D768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>HDL</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C769" t="n">
+        <v>0</v>
+      </c>
+      <c r="D769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C770" t="n">
+        <v>0</v>
+      </c>
+      <c r="D770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>KORI</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C771" t="n">
+        <v>0</v>
+      </c>
+      <c r="D771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>PCWD</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C772" t="n">
+        <v>0</v>
+      </c>
+      <c r="D772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>PHWR</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C773" t="n">
+        <v>0</v>
+      </c>
+      <c r="D773" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>PNP</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C774" t="n">
+        <v>0</v>
+      </c>
+      <c r="D774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>PWL</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C775" t="n">
+        <v>0</v>
+      </c>
+      <c r="D775" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>SNP</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C776" t="n">
+        <v>0</v>
+      </c>
+      <c r="D776" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>STD</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C777" t="n">
+        <v>0</v>
+      </c>
+      <c r="D777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>AHH</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C778" t="n">
+        <v>0</v>
+      </c>
+      <c r="D778" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>CIA</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C779" t="n">
+        <v>0</v>
+      </c>
+      <c r="D779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>CWHB</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C780" t="n">
+        <v>0</v>
+      </c>
+      <c r="D780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>DNN</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C781" t="n">
+        <v>0</v>
+      </c>
+      <c r="D781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>LDH</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C782" t="n">
+        <v>0</v>
+      </c>
+      <c r="D782" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>LDK</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C783" t="n">
+        <v>0</v>
+      </c>
+      <c r="D783" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C784" t="n">
+        <v>0</v>
+      </c>
+      <c r="D784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>SNL</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C785" t="n">
+        <v>0</v>
+      </c>
+      <c r="D785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>SEQ</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="C786" t="n">
+        <v>0</v>
+      </c>
+      <c r="D786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>SVER</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C787" t="n">
+        <v>0</v>
+      </c>
+      <c r="D787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>SGSR</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C788" t="n">
+        <v>0</v>
+      </c>
+      <c r="D788" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23541,7 +26555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C699"/>
+  <dimension ref="A1:C788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23550,17 +26564,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Railhead</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Supply</t>
         </is>
@@ -24034,7 +27048,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">GVSG </t>
+          <t>GVSG</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -25294,7 +28308,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">RFCI </t>
+          <t>RFCI</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -25354,7 +28368,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">DURG </t>
+          <t>DURG</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -27799,7 +30813,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t xml:space="preserve">BALE </t>
+          <t>BALE</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -31039,7 +34053,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHSM </t>
+          <t>CHSM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -33064,12 +36078,12 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>GVSG</t>
+          <t>TLD</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Chattisgarh</t>
         </is>
       </c>
       <c r="C635" t="n">
@@ -33079,12 +36093,12 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>TLD</t>
+          <t>RNO</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C636" t="n">
@@ -33094,12 +36108,12 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>DURG</t>
+          <t>RMBK</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C637" t="n">
@@ -33109,12 +36123,12 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>RFCI</t>
+          <t>PNMB</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -33124,12 +36138,12 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>RNO</t>
+          <t>NBQ</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C639" t="n">
@@ -33139,12 +36153,12 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>RMBK</t>
+          <t>SGNR</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C640" t="n">
@@ -33154,12 +36168,12 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>PNMB</t>
+          <t>BGKT</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C641" t="n">
@@ -33169,12 +36183,12 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t xml:space="preserve">TRVL </t>
+          <t>BME</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C642" t="n">
@@ -33184,12 +36198,12 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t xml:space="preserve">GHSG </t>
+          <t>POK</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C643" t="n">
@@ -33199,12 +36213,12 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>BALE</t>
+          <t>JOR</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C644" t="n">
@@ -33214,12 +36228,12 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>NBQ</t>
+          <t>GVGN</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -33229,12 +36243,12 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>SGNR</t>
+          <t>CHD</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="C646" t="n">
@@ -33244,12 +36258,12 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t xml:space="preserve">SDLP </t>
+          <t>DHPR</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C647" t="n">
@@ -33259,12 +36273,12 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>BGKT</t>
+          <t>FZR</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C648" t="n">
@@ -33274,12 +36288,12 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>BME</t>
+          <t>PTK</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C649" t="n">
@@ -33289,12 +36303,12 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>POK</t>
+          <t>HSP</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C650" t="n">
@@ -33304,12 +36318,12 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>MUK</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C651" t="n">
@@ -33319,7 +36333,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>GVGN</t>
+          <t>DZA</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -33334,12 +36348,12 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>CHD</t>
+          <t>ELRA</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C653" t="n">
@@ -33349,12 +36363,12 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>DHPR</t>
+          <t>TPJ</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C654" t="n">
@@ -33364,12 +36378,12 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>FZR</t>
+          <t>KONC</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C655" t="n">
@@ -33379,12 +36393,12 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>PTK</t>
+          <t>PEM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C656" t="n">
@@ -33394,12 +36408,12 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>HSP</t>
+          <t>CBU</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Telangana</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C657" t="n">
@@ -33409,12 +36423,12 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>MUK</t>
+          <t>CDM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C658" t="n">
@@ -33424,12 +36438,12 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>MROS</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C659" t="n">
@@ -33439,12 +36453,12 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>ELRA</t>
+          <t>CHZ</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C660" t="n">
@@ -33454,12 +36468,12 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>TPJ</t>
+          <t>RK</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttarakhand</t>
         </is>
       </c>
       <c r="C661" t="n">
@@ -33469,12 +36483,12 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>KONC</t>
+          <t>HRW</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttarakhand</t>
         </is>
       </c>
       <c r="C662" t="n">
@@ -33484,12 +36498,12 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>PEM</t>
+          <t>RKSH</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttarakhand</t>
         </is>
       </c>
       <c r="C663" t="n">
@@ -33499,12 +36513,12 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>CBU</t>
+          <t>PHY</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C664" t="n">
@@ -33514,12 +36528,12 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>CDM</t>
+          <t>BHI</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C665" t="n">
@@ -33529,12 +36543,12 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>CHSM</t>
+          <t>BSUR</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C666" t="n">
@@ -33544,7 +36558,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>MROS</t>
+          <t>AALJ</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -33559,12 +36573,12 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>CHZ</t>
+          <t>PFCR</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -33574,12 +36588,12 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>FCP</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Uttarakhand</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C669" t="n">
@@ -33589,12 +36603,12 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>HRW</t>
+          <t>AY</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Uttarakhand</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C670" t="n">
@@ -33604,12 +36618,12 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>RKSH</t>
+          <t>HPU</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Uttarakhand</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C671" t="n">
@@ -33619,12 +36633,12 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>PHY</t>
+          <t>GADJ</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C672" t="n">
@@ -33634,12 +36648,12 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>BHI</t>
+          <t>JAT</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Jammu &amp; Kashmir</t>
         </is>
       </c>
       <c r="C673" t="n">
@@ -33649,12 +36663,12 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>BSUR</t>
+          <t>AWR</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C674" t="n">
@@ -33664,12 +36678,12 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>AALJ</t>
+          <t>DGR</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C675" t="n">
@@ -33679,12 +36693,12 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>PFCR</t>
+          <t>GLGT</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C676" t="n">
@@ -33694,12 +36708,12 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>FCP</t>
+          <t>PLP</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C677" t="n">
@@ -33709,7 +36723,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>AY</t>
+          <t>BMHR</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -33724,12 +36738,12 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>HPU</t>
+          <t>FCSJ</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Jammu &amp; Kashmir</t>
         </is>
       </c>
       <c r="C679" t="n">
@@ -33739,12 +36753,12 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>GADJ</t>
+          <t>SBIB</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C680" t="n">
@@ -33754,12 +36768,12 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>JAT</t>
+          <t>CNBI</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Jammu &amp; Kashmir</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C681" t="n">
@@ -33769,12 +36783,12 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>AWR</t>
+          <t>GDA</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C682" t="n">
@@ -33784,7 +36798,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>DGR</t>
+          <t>NJP</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -33799,12 +36813,12 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>GLGT</t>
+          <t>HRF</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C684" t="n">
@@ -33814,12 +36828,12 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>PLP</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C685" t="n">
@@ -33829,12 +36843,12 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>BMHR</t>
+          <t>MRJ</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C686" t="n">
@@ -33844,12 +36858,12 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>FCSJ</t>
+          <t>PGTN</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Jammu &amp; Kashmir</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="C687" t="n">
@@ -33859,12 +36873,12 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>SBIB</t>
+          <t>KJM</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C688" t="n">
@@ -33874,12 +36888,12 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>CNBI</t>
+          <t>DMFS</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C689" t="n">
@@ -33889,12 +36903,12 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>GDA</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C690" t="n">
@@ -33904,12 +36918,12 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>NJP</t>
+          <t>CGS</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>West Bengal</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C691" t="n">
@@ -33919,12 +36933,12 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>HRF</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C692" t="n">
@@ -33934,12 +36948,12 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>COA</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C693" t="n">
@@ -33949,12 +36963,12 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>MRJ</t>
+          <t>JCL</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C694" t="n">
@@ -33964,12 +36978,12 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>PGTN</t>
+          <t>BGP</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C695" t="n">
@@ -33979,12 +36993,12 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>KJM</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C696" t="n">
@@ -33994,12 +37008,12 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>DMFS</t>
+          <t>FUT</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C697" t="n">
@@ -34009,12 +37023,12 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>JMP</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C698" t="n">
@@ -34024,15 +37038,1350 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>CGS</t>
+          <t>RNX</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>BGBR</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chattisgarh </t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>BSP</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chattisgarh </t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>MSMD</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chattisgarh </t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>FCDB</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>FCG</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>KKF</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="C706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>BBMN</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>SMBX</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>UHP</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>KQR</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>RMT</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>SBG</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>TATA</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>BGM</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>HVR</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>CHTS</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>BHS</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>GGGS</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>KEQ</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>KMZ</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>NSP</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>BAP</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>HBN</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
           <t>NE</t>
         </is>
       </c>
-      <c r="C699" t="n">
+      <c r="C726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>JTTN</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>BLS</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odisha </t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>JJKR</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odisha </t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>KUR</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odisha </t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odisha </t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>AGS</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>BTE</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>DHO</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>HAN</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>SGRA</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>SOG</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>ALU</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>CBF</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>IGCS</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>KPD</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>KUM</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>MDAD</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>MTP</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>TBM</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>AGC</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>AMG</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>BUI</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>GCT</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>GKC</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>HGJ</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>PKY</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>BWN</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>HB</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>KKQ</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>MDN</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>BGDS</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>VGLJ</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>LLBR</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>KOKG</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>NFK</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>ADR</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>BNW</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>FCPP</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>FCSD</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>FCSN</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C767" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>FDB</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>HDL</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>KORI</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>PCWD</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>PHWR</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C773" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>PNP</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>PWL</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C775" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>SNP</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C776" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>STD</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>AHH</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C778" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>CIA</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>CWHB</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>DNN</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>LDH</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C782" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>LDK</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C783" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>SNL</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>SEQ</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="C786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>SVER</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>SGSR</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C788" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34047,7 +38396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C699"/>
+  <dimension ref="A1:C788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34056,17 +38405,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Railhead</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Demand</t>
         </is>
@@ -34540,7 +38889,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">GVSG </t>
+          <t>GVSG</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -35800,7 +40149,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">RFCI </t>
+          <t>RFCI</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -35860,7 +40209,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">DURG </t>
+          <t>DURG</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -38305,7 +42654,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t xml:space="preserve">BALE </t>
+          <t>BALE</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -41545,7 +45894,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHSM </t>
+          <t>CHSM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -43570,12 +47919,12 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>GVSG</t>
+          <t>TLD</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Chattisgarh</t>
         </is>
       </c>
       <c r="C635" t="n">
@@ -43585,12 +47934,12 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>TLD</t>
+          <t>RNO</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C636" t="n">
@@ -43600,12 +47949,12 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>DURG</t>
+          <t>RMBK</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C637" t="n">
@@ -43615,12 +47964,12 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>RFCI</t>
+          <t>PNMB</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Chattisgarh</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -43630,12 +47979,12 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>RNO</t>
+          <t>NBQ</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C639" t="n">
@@ -43645,12 +47994,12 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>RMBK</t>
+          <t>SGNR</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C640" t="n">
@@ -43660,12 +48009,12 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>PNMB</t>
+          <t>BGKT</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C641" t="n">
@@ -43675,12 +48024,12 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t xml:space="preserve">TRVL </t>
+          <t>BME</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C642" t="n">
@@ -43690,12 +48039,12 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t xml:space="preserve">GHSG </t>
+          <t>POK</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C643" t="n">
@@ -43705,12 +48054,12 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>BALE</t>
+          <t>JOR</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C644" t="n">
@@ -43720,12 +48069,12 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>NBQ</t>
+          <t>GVGN</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -43735,12 +48084,12 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>SGNR</t>
+          <t>CHD</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="C646" t="n">
@@ -43750,12 +48099,12 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t xml:space="preserve">SDLP </t>
+          <t>DHPR</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C647" t="n">
@@ -43765,12 +48114,12 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>BGKT</t>
+          <t>FZR</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C648" t="n">
@@ -43780,12 +48129,12 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>BME</t>
+          <t>PTK</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C649" t="n">
@@ -43795,12 +48144,12 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>POK</t>
+          <t>HSP</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C650" t="n">
@@ -43810,12 +48159,12 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>MUK</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C651" t="n">
@@ -43825,7 +48174,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>GVGN</t>
+          <t>DZA</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -43840,12 +48189,12 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>CHD</t>
+          <t>ELRA</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C653" t="n">
@@ -43855,12 +48204,12 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>DHPR</t>
+          <t>TPJ</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C654" t="n">
@@ -43870,12 +48219,12 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>FZR</t>
+          <t>KONC</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C655" t="n">
@@ -43885,12 +48234,12 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>PTK</t>
+          <t>PEM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C656" t="n">
@@ -43900,12 +48249,12 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>HSP</t>
+          <t>CBU</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Telangana</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C657" t="n">
@@ -43915,12 +48264,12 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>MUK</t>
+          <t>CDM</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C658" t="n">
@@ -43930,12 +48279,12 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>MROS</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C659" t="n">
@@ -43945,12 +48294,12 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>ELRA</t>
+          <t>CHZ</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C660" t="n">
@@ -43960,12 +48309,12 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>TPJ</t>
+          <t>RK</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttarakhand</t>
         </is>
       </c>
       <c r="C661" t="n">
@@ -43975,12 +48324,12 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>KONC</t>
+          <t>HRW</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttarakhand</t>
         </is>
       </c>
       <c r="C662" t="n">
@@ -43990,12 +48339,12 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>PEM</t>
+          <t>RKSH</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Uttarakhand</t>
         </is>
       </c>
       <c r="C663" t="n">
@@ -44005,12 +48354,12 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>CBU</t>
+          <t>PHY</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C664" t="n">
@@ -44020,12 +48369,12 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>CDM</t>
+          <t>BHI</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C665" t="n">
@@ -44035,12 +48384,12 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>CHSM</t>
+          <t>BSUR</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C666" t="n">
@@ -44050,7 +48399,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>MROS</t>
+          <t>AALJ</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -44065,12 +48414,12 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>CHZ</t>
+          <t>PFCR</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -44080,12 +48429,12 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>FCP</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Uttarakhand</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C669" t="n">
@@ -44095,12 +48444,12 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>HRW</t>
+          <t>AY</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Uttarakhand</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C670" t="n">
@@ -44110,12 +48459,12 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>RKSH</t>
+          <t>HPU</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Uttarakhand</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C671" t="n">
@@ -44125,12 +48474,12 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>PHY</t>
+          <t>GADJ</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C672" t="n">
@@ -44140,12 +48489,12 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>BHI</t>
+          <t>JAT</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Jammu &amp; Kashmir</t>
         </is>
       </c>
       <c r="C673" t="n">
@@ -44155,12 +48504,12 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>BSUR</t>
+          <t>AWR</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C674" t="n">
@@ -44170,12 +48519,12 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>AALJ</t>
+          <t>DGR</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C675" t="n">
@@ -44185,12 +48534,12 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>PFCR</t>
+          <t>GLGT</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C676" t="n">
@@ -44200,12 +48549,12 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>FCP</t>
+          <t>PLP</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C677" t="n">
@@ -44215,7 +48564,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>AY</t>
+          <t>BMHR</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -44230,12 +48579,12 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>HPU</t>
+          <t>FCSJ</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Jammu &amp; Kashmir</t>
         </is>
       </c>
       <c r="C679" t="n">
@@ -44245,12 +48594,12 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>GADJ</t>
+          <t>SBIB</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C680" t="n">
@@ -44260,12 +48609,12 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>JAT</t>
+          <t>CNBI</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Jammu &amp; Kashmir</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C681" t="n">
@@ -44275,12 +48624,12 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>AWR</t>
+          <t>GDA</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C682" t="n">
@@ -44290,7 +48639,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>DGR</t>
+          <t>NJP</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -44305,12 +48654,12 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>GLGT</t>
+          <t>HRF</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>UP</t>
         </is>
       </c>
       <c r="C684" t="n">
@@ -44320,12 +48669,12 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>PLP</t>
+          <t>MMR</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C685" t="n">
@@ -44335,12 +48684,12 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>BMHR</t>
+          <t>MRJ</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C686" t="n">
@@ -44350,12 +48699,12 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>FCSJ</t>
+          <t>PGTN</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Jammu &amp; Kashmir</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="C687" t="n">
@@ -44365,12 +48714,12 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>SBIB</t>
+          <t>KJM</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C688" t="n">
@@ -44380,12 +48729,12 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>CNBI</t>
+          <t>DMFS</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C689" t="n">
@@ -44395,12 +48744,12 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>GDA</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C690" t="n">
@@ -44410,12 +48759,12 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>NJP</t>
+          <t>CGS</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>West Bengal</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C691" t="n">
@@ -44425,12 +48774,12 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>HRF</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>UP</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C692" t="n">
@@ -44440,12 +48789,12 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>COA</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C693" t="n">
@@ -44455,12 +48804,12 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>MRJ</t>
+          <t>JCL</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Andhra Pradesh</t>
         </is>
       </c>
       <c r="C694" t="n">
@@ -44470,12 +48819,12 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>PGTN</t>
+          <t>BGP</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C695" t="n">
@@ -44485,12 +48834,12 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>KJM</t>
+          <t>BGS</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C696" t="n">
@@ -44500,12 +48849,12 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>DMFS</t>
+          <t>FUT</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C697" t="n">
@@ -44515,12 +48864,12 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>JMP</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C698" t="n">
@@ -44530,15 +48879,1350 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>CGS</t>
+          <t>RNX</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>BGBR</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chattisgarh </t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>BSP</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chattisgarh </t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>MSMD</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chattisgarh </t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>FCDB</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>FCG</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Delhi</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>KKF</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="C706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>BBMN</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>SMBX</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>UHP</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>KQR</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>RMT</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>SBG</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>TATA</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Jharkhand</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>BGM</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>COL</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>HVR</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>CHTS</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>BHS</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>GGGS</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>KEQ</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>KMZ</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>NSP</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>BAP</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>HBN</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
           <t>NE</t>
         </is>
       </c>
-      <c r="C699" t="n">
+      <c r="C726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>JTTN</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>BLS</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odisha </t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>JJKR</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odisha </t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>KUR</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odisha </t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odisha </t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>AGS</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>BTE</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>DHO</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>HAN</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>SGRA</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>SOG</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>ALU</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>CBF</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>IGCS</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>KPD</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>KUM</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>MDAD</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>MTP</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>TBM</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>AGC</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>AMG</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>BUI</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>GCT</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>GKC</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>HGJ</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>PKY</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>BWN</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>HB</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>KKQ</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>MDN</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>BGDS</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>VGLJ</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>LLBR</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>KOKG</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>NFK</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>West Bengal</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>ADR</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>BNW</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>FCPP</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>FCSD</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>FCSN</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C767" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>FDB</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>HDL</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>JCY</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>KORI</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>PCWD</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>PHWR</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C773" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>PNP</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>PWL</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C775" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>SNP</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C776" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>STD</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haryana </t>
+        </is>
+      </c>
+      <c r="C777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>AHH</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C778" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>CIA</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>CWHB</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>DNN</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>LDH</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C782" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>LDK</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C783" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>SNL</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Punjab </t>
+        </is>
+      </c>
+      <c r="C785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>SEQ</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="C786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>SVER</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>SGSR</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="C788" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44562,17 +50246,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Supply_wheat</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Supply_rice</t>
         </is>
@@ -44858,22 +50542,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>States</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Alloc_wheat</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Alloc_rice</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>

--- a/Input/Monthly_Template_M1.xlsx
+++ b/Input/Monthly_Template_M1.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,6 +587,36 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -601,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,6 +820,42 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -804,7 +870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,6 +1027,36 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -975,7 +1071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1132,6 +1228,36 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1152,20 +1278,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Supply_wheat</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Supply_rice</t>
         </is>
@@ -1448,25 +1574,25 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>States</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Alloc_wheat</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Alloc_rice</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
